--- a/latex/sources/loadtestgraph.xlsx
+++ b/latex/sources/loadtestgraph.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d063250/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d063250/git/BA-DOCS/latex/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1040" windowWidth="35060" windowHeight="18700" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="35060" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CPU-java-node" sheetId="2" r:id="rId1"/>
@@ -158,6 +158,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Throughput</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> Comparison within 100% CPU Consumption</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -209,37 +270,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21579.0</c:v>
+                  <c:v>17.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41142.8</c:v>
+                  <c:v>33.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60841.6</c:v>
+                  <c:v>46.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76472.0</c:v>
+                  <c:v>58.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93572.0</c:v>
+                  <c:v>70.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110279.2</c:v>
+                  <c:v>84.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22081.0</c:v>
+                  <c:v>19.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42787.2</c:v>
+                  <c:v>35.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63418.8</c:v>
+                  <c:v>50.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82933.2</c:v>
+                  <c:v>64.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95181.4</c:v>
+                  <c:v>84.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,22 +312,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>17.99</c:v>
+                  <c:v>21579.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.23</c:v>
+                  <c:v>41142.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.52</c:v>
+                  <c:v>60841.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.13</c:v>
+                  <c:v>76472.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.22</c:v>
+                  <c:v>93572.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.2</c:v>
+                  <c:v>110279.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,37 +379,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21579.0</c:v>
+                  <c:v>17.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41142.8</c:v>
+                  <c:v>33.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60841.6</c:v>
+                  <c:v>46.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76472.0</c:v>
+                  <c:v>58.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93572.0</c:v>
+                  <c:v>70.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110279.2</c:v>
+                  <c:v>84.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22081.0</c:v>
+                  <c:v>19.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42787.2</c:v>
+                  <c:v>35.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63418.8</c:v>
+                  <c:v>50.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82933.2</c:v>
+                  <c:v>64.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95181.4</c:v>
+                  <c:v>84.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,19 +421,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="6">
-                  <c:v>19.81</c:v>
+                  <c:v>22081.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.48</c:v>
+                  <c:v>42787.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.3</c:v>
+                  <c:v>63418.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.6</c:v>
+                  <c:v>82933.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.99</c:v>
+                  <c:v>95181.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,45 +448,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088684080"/>
-        <c:axId val="-2039146208"/>
+        <c:axId val="-2007441552"/>
+        <c:axId val="-2007387392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088684080"/>
+        <c:axId val="-2007441552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>CPU Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -439,7 +498,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -455,8 +514,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -477,7 +535,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -492,12 +550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039146208"/>
+        <c:crossAx val="-2007387392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2039146208"/>
+        <c:axId val="-2007387392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,21 +575,38 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Throuput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> per Minute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -545,7 +620,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -561,8 +636,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -583,7 +658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -598,7 +673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088684080"/>
+        <c:crossAx val="-2007441552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -612,6 +687,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -625,7 +701,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -723,6 +799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1008,11 +1085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2039937728"/>
-        <c:axId val="-2073988640"/>
+        <c:axId val="-2024933328"/>
+        <c:axId val="-2009932656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2039937728"/>
+        <c:axId val="-2024933328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,6 +1126,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1115,12 +1193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073988640"/>
+        <c:crossAx val="-2009932656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073988640"/>
+        <c:axId val="-2009932656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,6 +1258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1246,7 +1325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039937728"/>
+        <c:crossAx val="-2024933328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1260,6 +1339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1616,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2029317232"/>
-        <c:axId val="-2029313936"/>
+        <c:axId val="-2027058320"/>
+        <c:axId val="-2026933616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2029317232"/>
+        <c:axId val="-2027058320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,12 +1756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029313936"/>
+        <c:crossAx val="-2026933616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029313936"/>
+        <c:axId val="-2026933616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029317232"/>
+        <c:crossAx val="-2027058320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2030,11 +2110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2029593296"/>
-        <c:axId val="-2029590000"/>
+        <c:axId val="-2025679376"/>
+        <c:axId val="-2025697216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2029593296"/>
+        <c:axId val="-2025679376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,12 +2171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029590000"/>
+        <c:crossAx val="-2025697216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029590000"/>
+        <c:axId val="-2025697216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029593296"/>
+        <c:crossAx val="-2025679376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,11 +2549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2029555648"/>
-        <c:axId val="-2029550336"/>
+        <c:axId val="-2024829376"/>
+        <c:axId val="-2025422752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2029555648"/>
+        <c:axId val="-2024829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,12 +2625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029550336"/>
+        <c:crossAx val="-2025422752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029550336"/>
+        <c:axId val="-2025422752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029555648"/>
+        <c:crossAx val="-2024829376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2928,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2029518160"/>
-        <c:axId val="-2029514896"/>
+        <c:axId val="-2025365856"/>
+        <c:axId val="-2026993136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2029518160"/>
+        <c:axId val="-2025365856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,12 +3069,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029514896"/>
+        <c:crossAx val="-2026993136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029514896"/>
+        <c:axId val="-2026993136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029518160"/>
+        <c:crossAx val="-2025365856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3330,11 +3410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116281504"/>
-        <c:axId val="-2029676256"/>
+        <c:axId val="-2024969696"/>
+        <c:axId val="-2024966432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116281504"/>
+        <c:axId val="-2024969696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,12 +3471,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029676256"/>
+        <c:crossAx val="-2024966432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029676256"/>
+        <c:axId val="-2024966432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,6 +3496,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3452,7 +3533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116281504"/>
+        <c:crossAx val="-2024969696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7397,20 +7478,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7888,16 +7969,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -7913,90 +7993,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="B2" s="1">
         <v>21579</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="B3" s="1">
         <v>41142.800000000003</v>
-      </c>
-      <c r="B3" s="1">
-        <v>33.229999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>46.52</v>
+      </c>
+      <c r="B4" s="1">
         <v>60841.599999999999</v>
-      </c>
-      <c r="B4" s="1">
-        <v>46.52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>58.13</v>
+      </c>
+      <c r="B5" s="1">
         <v>76472</v>
-      </c>
-      <c r="B5" s="1">
-        <v>58.13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>70.22</v>
+      </c>
+      <c r="B6" s="1">
         <v>93572</v>
-      </c>
-      <c r="B6" s="1">
-        <v>70.22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="B7" s="1">
         <v>110279.2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>84.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C8" s="1">
         <v>22081</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="C9" s="1">
         <v>42787.199999999997</v>
-      </c>
-      <c r="C9" s="1">
-        <v>35.479999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="C10" s="1">
         <v>63418.8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>50.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C11" s="1">
         <v>82933.2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>84.99</v>
+      </c>
+      <c r="C12" s="1">
         <v>95181.4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>84.99</v>
       </c>
     </row>
   </sheetData>
@@ -8010,7 +8090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
@@ -8826,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/latex/sources/loadtestgraph.xlsx
+++ b/latex/sources/loadtestgraph.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="35060" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CPU-java-node" sheetId="2" r:id="rId1"/>
@@ -448,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2007441552"/>
-        <c:axId val="-2007387392"/>
+        <c:axId val="-661850912"/>
+        <c:axId val="-687486256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2007441552"/>
+        <c:axId val="-661850912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +479,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>CPU Percentage</a:t>
+                  <a:t>CPU (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -550,12 +550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007387392"/>
+        <c:crossAx val="-687486256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2007387392"/>
+        <c:axId val="-687486256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-                  <a:t> per Minute</a:t>
+                  <a:t> (requests/minute)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400" b="1"/>
               </a:p>
@@ -673,7 +673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007441552"/>
+        <c:crossAx val="-661850912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,11 +1085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2024933328"/>
-        <c:axId val="-2009932656"/>
+        <c:axId val="-1123639440"/>
+        <c:axId val="-683825856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2024933328"/>
+        <c:axId val="-1123639440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,12 +1193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009932656"/>
+        <c:crossAx val="-683825856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2009932656"/>
+        <c:axId val="-683825856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024933328"/>
+        <c:crossAx val="-1123639440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1696,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2027058320"/>
-        <c:axId val="-2026933616"/>
+        <c:axId val="-668165632"/>
+        <c:axId val="-683817232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2027058320"/>
+        <c:axId val="-668165632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,12 +1756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026933616"/>
+        <c:crossAx val="-683817232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2026933616"/>
+        <c:axId val="-683817232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027058320"/>
+        <c:crossAx val="-668165632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1882,7 +1882,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2110,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2025679376"/>
-        <c:axId val="-2025697216"/>
+        <c:axId val="-903722080"/>
+        <c:axId val="-742824720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2025679376"/>
+        <c:axId val="-903722080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025697216"/>
+        <c:crossAx val="-742824720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2025697216"/>
+        <c:axId val="-742824720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025679376"/>
+        <c:crossAx val="-903722080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2024829376"/>
-        <c:axId val="-2025422752"/>
+        <c:axId val="-783451776"/>
+        <c:axId val="-668577712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2024829376"/>
+        <c:axId val="-783451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,12 +2624,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025422752"/>
+        <c:crossAx val="-668577712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2025422752"/>
+        <c:axId val="-668577712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,6 +2679,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2716,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024829376"/>
+        <c:crossAx val="-783451776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3008,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2025365856"/>
-        <c:axId val="-2026993136"/>
+        <c:axId val="-741475920"/>
+        <c:axId val="-742886400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2025365856"/>
+        <c:axId val="-741475920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,12 +3069,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026993136"/>
+        <c:crossAx val="-742886400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2026993136"/>
+        <c:axId val="-742886400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025365856"/>
+        <c:crossAx val="-741475920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,11 +3410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2024969696"/>
-        <c:axId val="-2024966432"/>
+        <c:axId val="-670006304"/>
+        <c:axId val="-684108016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2024969696"/>
+        <c:axId val="-670006304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,12 +3471,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024966432"/>
+        <c:crossAx val="-684108016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2024966432"/>
+        <c:axId val="-684108016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024969696"/>
+        <c:crossAx val="-670006304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7479,15 +7479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7969,15 +7969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
